--- a/SchedulingData/dynamic14/pso/scheduling2_19.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling2_19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>223.52</v>
+        <v>207.2</v>
       </c>
       <c r="D2" t="n">
-        <v>276.22</v>
+        <v>253.16</v>
       </c>
       <c r="E2" t="n">
-        <v>12.088</v>
+        <v>16.684</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>205.66</v>
+        <v>224.44</v>
       </c>
       <c r="D3" t="n">
-        <v>254.82</v>
+        <v>262.96</v>
       </c>
       <c r="E3" t="n">
-        <v>13.708</v>
+        <v>13.764</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>213.52</v>
+        <v>217.36</v>
       </c>
       <c r="D4" t="n">
-        <v>259.7</v>
+        <v>269.36</v>
       </c>
       <c r="E4" t="n">
-        <v>13.66</v>
+        <v>11.744</v>
       </c>
     </row>
     <row r="5">
@@ -523,188 +523,188 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>254.82</v>
+        <v>223.68</v>
       </c>
       <c r="D5" t="n">
-        <v>312.46</v>
+        <v>282.94</v>
       </c>
       <c r="E5" t="n">
-        <v>10.584</v>
+        <v>12.856</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>276.22</v>
+        <v>241.2</v>
       </c>
       <c r="D6" t="n">
-        <v>327.7</v>
+        <v>298.9</v>
       </c>
       <c r="E6" t="n">
-        <v>8.56</v>
+        <v>13.26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>234.88</v>
+        <v>213.86</v>
       </c>
       <c r="D7" t="n">
-        <v>292.08</v>
+        <v>272.86</v>
       </c>
       <c r="E7" t="n">
-        <v>10.992</v>
+        <v>12.884</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>327.7</v>
+        <v>262.96</v>
       </c>
       <c r="D8" t="n">
-        <v>369.8</v>
+        <v>321.76</v>
       </c>
       <c r="E8" t="n">
-        <v>5.48</v>
+        <v>9.504</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>259.7</v>
+        <v>269.36</v>
       </c>
       <c r="D9" t="n">
-        <v>300.7</v>
+        <v>338.48</v>
       </c>
       <c r="E9" t="n">
-        <v>10.7</v>
+        <v>7.432</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>224.9</v>
+        <v>298.9</v>
       </c>
       <c r="D10" t="n">
-        <v>269.76</v>
+        <v>377.8</v>
       </c>
       <c r="E10" t="n">
-        <v>12.224</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>300.7</v>
+        <v>338.48</v>
       </c>
       <c r="D11" t="n">
-        <v>345.06</v>
+        <v>388.48</v>
       </c>
       <c r="E11" t="n">
-        <v>7.884</v>
+        <v>4.052</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>292.08</v>
+        <v>272.86</v>
       </c>
       <c r="D12" t="n">
-        <v>359.98</v>
+        <v>365.46</v>
       </c>
       <c r="E12" t="n">
-        <v>7.832</v>
+        <v>7.724</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>312.46</v>
+        <v>365.46</v>
       </c>
       <c r="D13" t="n">
-        <v>373.24</v>
+        <v>416.46</v>
       </c>
       <c r="E13" t="n">
-        <v>7.636</v>
+        <v>4.764</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>369.8</v>
+        <v>282.94</v>
       </c>
       <c r="D14" t="n">
-        <v>439.9</v>
+        <v>327.98</v>
       </c>
       <c r="E14" t="n">
-        <v>1.56</v>
+        <v>8.992000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -713,17 +713,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>439.9</v>
+        <v>388.48</v>
       </c>
       <c r="D15" t="n">
-        <v>513.6799999999999</v>
+        <v>463.6</v>
       </c>
       <c r="E15" t="n">
-        <v>30</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="16">
@@ -732,36 +732,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>513.6799999999999</v>
+        <v>463.6</v>
       </c>
       <c r="D16" t="n">
-        <v>562.52</v>
+        <v>552.92</v>
       </c>
       <c r="E16" t="n">
-        <v>27.296</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>231.92</v>
+        <v>253.16</v>
       </c>
       <c r="D17" t="n">
-        <v>291.34</v>
+        <v>309.54</v>
       </c>
       <c r="E17" t="n">
-        <v>9.555999999999999</v>
+        <v>13.156</v>
       </c>
     </row>
     <row r="18">
@@ -770,55 +770,55 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>562.52</v>
+        <v>552.92</v>
       </c>
       <c r="D18" t="n">
-        <v>606.02</v>
+        <v>616.98</v>
       </c>
       <c r="E18" t="n">
-        <v>24.576</v>
+        <v>27.264</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>345.06</v>
+        <v>309.54</v>
       </c>
       <c r="D19" t="n">
-        <v>390.1</v>
+        <v>393.74</v>
       </c>
       <c r="E19" t="n">
-        <v>4.02</v>
+        <v>8.356</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>269.76</v>
+        <v>327.98</v>
       </c>
       <c r="D20" t="n">
-        <v>340.66</v>
+        <v>388.38</v>
       </c>
       <c r="E20" t="n">
-        <v>7.244</v>
+        <v>5.072</v>
       </c>
     </row>
     <row r="21">
@@ -827,55 +827,55 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>340.66</v>
+        <v>393.74</v>
       </c>
       <c r="D21" t="n">
-        <v>405.76</v>
+        <v>451.68</v>
       </c>
       <c r="E21" t="n">
-        <v>2.864</v>
+        <v>5.652</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>405.76</v>
+        <v>377.8</v>
       </c>
       <c r="D22" t="n">
-        <v>465.86</v>
+        <v>433.74</v>
       </c>
       <c r="E22" t="n">
-        <v>0.444</v>
+        <v>5.016</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>465.86</v>
+        <v>416.46</v>
       </c>
       <c r="D23" t="n">
-        <v>566.27</v>
+        <v>472.62</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="24">
@@ -884,60 +884,60 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>390.1</v>
+        <v>472.62</v>
       </c>
       <c r="D24" t="n">
-        <v>444.28</v>
+        <v>552.9400000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.212</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>444.28</v>
+        <v>388.38</v>
       </c>
       <c r="D25" t="n">
-        <v>538.26</v>
+        <v>446.88</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>1.352</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>359.98</v>
+        <v>446.88</v>
       </c>
       <c r="D26" t="n">
-        <v>446.76</v>
+        <v>511.18</v>
       </c>
       <c r="E26" t="n">
-        <v>3.724</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -945,127 +945,127 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>538.26</v>
+        <v>451.68</v>
       </c>
       <c r="D27" t="n">
-        <v>599.9</v>
+        <v>497.92</v>
       </c>
       <c r="E27" t="n">
-        <v>26.516</v>
+        <v>2.168</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>291.34</v>
+        <v>616.98</v>
       </c>
       <c r="D28" t="n">
-        <v>359.2</v>
+        <v>683.26</v>
       </c>
       <c r="E28" t="n">
-        <v>5.86</v>
+        <v>24.756</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>599.9</v>
+        <v>497.92</v>
       </c>
       <c r="D29" t="n">
-        <v>642.0599999999999</v>
+        <v>580.38</v>
       </c>
       <c r="E29" t="n">
-        <v>23.92</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>606.02</v>
+        <v>580.38</v>
       </c>
       <c r="D30" t="n">
-        <v>654.52</v>
+        <v>650.54</v>
       </c>
       <c r="E30" t="n">
-        <v>20.856</v>
+        <v>27.624</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>642.0599999999999</v>
+        <v>433.74</v>
       </c>
       <c r="D31" t="n">
-        <v>730.16</v>
+        <v>468.8</v>
       </c>
       <c r="E31" t="n">
-        <v>21.68</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>566.27</v>
+        <v>321.76</v>
       </c>
       <c r="D32" t="n">
-        <v>622.55</v>
+        <v>383.76</v>
       </c>
       <c r="E32" t="n">
-        <v>27.032</v>
+        <v>5.424</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>622.55</v>
+        <v>511.18</v>
       </c>
       <c r="D33" t="n">
-        <v>665.35</v>
+        <v>578.92</v>
       </c>
       <c r="E33" t="n">
-        <v>24.392</v>
+        <v>26.876</v>
       </c>
     </row>
     <row r="34">
@@ -1074,22 +1074,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>359.2</v>
+        <v>468.8</v>
       </c>
       <c r="D34" t="n">
-        <v>444.86</v>
+        <v>569.92</v>
       </c>
       <c r="E34" t="n">
-        <v>2.884</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1097,13 +1097,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>373.24</v>
+        <v>569.92</v>
       </c>
       <c r="D35" t="n">
-        <v>431.06</v>
+        <v>618.54</v>
       </c>
       <c r="E35" t="n">
-        <v>4.464</v>
+        <v>26.828</v>
       </c>
     </row>
     <row r="36">
@@ -1112,17 +1112,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>444.86</v>
+        <v>618.54</v>
       </c>
       <c r="D36" t="n">
-        <v>498.1</v>
+        <v>678.54</v>
       </c>
       <c r="E36" t="n">
-        <v>0.18</v>
+        <v>24.408</v>
       </c>
     </row>
     <row r="37">
@@ -1131,112 +1131,169 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>498.1</v>
+        <v>678.54</v>
       </c>
       <c r="D37" t="n">
-        <v>599.04</v>
+        <v>722.34</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>22.168</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>431.06</v>
+        <v>383.76</v>
       </c>
       <c r="D38" t="n">
-        <v>490.72</v>
+        <v>454.44</v>
       </c>
       <c r="E38" t="n">
-        <v>2.088</v>
+        <v>2.476</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>599.04</v>
+        <v>552.9400000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>673.96</v>
+        <v>617.42</v>
       </c>
       <c r="E39" t="n">
-        <v>25.688</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>446.76</v>
+        <v>650.54</v>
       </c>
       <c r="D40" t="n">
-        <v>515.22</v>
+        <v>703.88</v>
       </c>
       <c r="E40" t="n">
-        <v>0.988</v>
+        <v>24.92</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>515.22</v>
+        <v>683.26</v>
       </c>
       <c r="D41" t="n">
-        <v>604.9400000000001</v>
+        <v>739.04</v>
       </c>
       <c r="E41" t="n">
-        <v>30</v>
+        <v>21.788</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>pond17</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>454.44</v>
+      </c>
+      <c r="D42" t="n">
+        <v>504.54</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.076</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>6</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>depot2</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>504.54</v>
+      </c>
+      <c r="D43" t="n">
+        <v>610.6900000000001</v>
+      </c>
+      <c r="E43" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>pond41</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>665.35</v>
-      </c>
-      <c r="D42" t="n">
-        <v>713.49</v>
-      </c>
-      <c r="E42" t="n">
-        <v>21.688</v>
+      <c r="C44" t="n">
+        <v>617.42</v>
+      </c>
+      <c r="D44" t="n">
+        <v>665.76</v>
+      </c>
+      <c r="E44" t="n">
+        <v>24.488</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>4</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>pond52</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>722.34</v>
+      </c>
+      <c r="D45" t="n">
+        <v>769.84</v>
+      </c>
+      <c r="E45" t="n">
+        <v>19.528</v>
       </c>
     </row>
   </sheetData>
